--- a/nr-rm-mesures-frcore/ig/ValueSet-mes-vs-height-body-position.xlsx
+++ b/nr-rm-mesures-frcore/ig/ValueSet-mes-vs-height-body-position.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T08:11:30+00:00</t>
+    <t>2024-07-30T08:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
